--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B14DAE-A056-4942-A04A-D85E440019EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61043FB-CE58-4CEA-9EDF-ED2EA5E30C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1785" windowWidth="24180" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="2325" windowWidth="28350" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Demanda evaporativa de la atmosfera</t>
   </si>
@@ -125,6 +125,84 @@
   </si>
   <si>
     <t>°C</t>
+  </si>
+  <si>
+    <t>W/m²</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>red, yellow, blue</t>
+  </si>
+  <si>
+    <t>blue, yellow, red</t>
+  </si>
+  <si>
+    <t>Precipitación acumulada mensual, desde 2011 a 2019. Este gráfico permite comparar la cantidad precipitación entre distintos años.</t>
+  </si>
+  <si>
+    <t>Evapotranspiración promedio mensual desde 2011 a 2019. Este gráfico permite comparar la evapotranspiración en distintos años.</t>
+  </si>
+  <si>
+    <t>Temperatura promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 1 mes entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 3 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 24 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 9 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 12 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 1 mes entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 3 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 6 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 9 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 12 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 6 meses entre los años 2011 y 2019.</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>tasmin</t>
+  </si>
+  <si>
+    <t>tasmax</t>
+  </si>
+  <si>
+    <t>Temperatura Mínima</t>
+  </si>
+  <si>
+    <t>Temperatura Máxima</t>
+  </si>
+  <si>
+    <t>Temperatura mínima promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t>Temperatura máxima promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
   </si>
 </sst>
 </file>
@@ -511,19 +589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -533,16 +612,31 @@
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -552,8 +646,14 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -563,104 +663,217 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61043FB-CE58-4CEA-9EDF-ED2EA5E30C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA76EDD-ECE4-4FD6-9DC1-9D45370F64EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2325" windowWidth="28350" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,15 +139,6 @@
     <t>blue, yellow, red</t>
   </si>
   <si>
-    <t>Precipitación acumulada mensual, desde 2011 a 2019. Este gráfico permite comparar la cantidad precipitación entre distintos años.</t>
-  </si>
-  <si>
-    <t>Evapotranspiración promedio mensual desde 2011 a 2019. Este gráfico permite comparar la evapotranspiración en distintos años.</t>
-  </si>
-  <si>
-    <t>Temperatura promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
-  </si>
-  <si>
     <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 1 mes entre los años 2011 y 2019.</t>
   </si>
   <si>
@@ -199,10 +190,19 @@
     <t>Temperatura Máxima</t>
   </si>
   <si>
-    <t>Temperatura mínima promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
-  </si>
-  <si>
-    <t>Temperatura máxima promedio mensual desde 2011 a 2019. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+    <t>Evapotranspiración promedio mensual. Este gráfico permite comparar la evapotranspiración en distintos años.</t>
+  </si>
+  <si>
+    <t>Temperatura promedio mensual. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t>Temperatura mínima promedio mensual. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t>Temperatura máxima promedio mensual. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t>Precipitación acumulada mensual. Este gráfico permite comparar la cantidad precipitación entre distintos años.</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,15 +667,15 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -684,15 +684,15 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -701,7 +701,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA76EDD-ECE4-4FD6-9DC1-9D45370F64EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEE411A-4B0A-4CED-AD38-9D3E1E179F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="750" windowWidth="24180" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Demanda evaporativa de la atmosfera</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Precipitación acumulada mensual. Este gráfico permite comparar la cantidad precipitación entre distintos años.</t>
+  </si>
+  <si>
+    <t>#730000, #e60000, #ffaa00, #fcd37f, #ffff00</t>
+  </si>
+  <si>
+    <t>#ff1820, #ff525e, #ff9ba1, #ffebed, #99dddf, #52bdc9, #127eaf</t>
   </si>
 </sst>
 </file>
@@ -592,14 +598,15 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -726,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -740,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -754,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -768,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -782,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -796,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -810,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -824,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -838,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -852,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -866,7 +873,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEE411A-4B0A-4CED-AD38-9D3E1E179F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13240DE2-A4E0-4EC4-B3C7-8FA6C8EDEF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="750" windowWidth="24180" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
-    <t>Demanda evaporativa de la atmosfera</t>
-  </si>
-  <si>
     <t>pet</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>W/m²</t>
-  </si>
-  <si>
     <t>cols</t>
   </si>
   <si>
@@ -209,13 +203,19 @@
   </si>
   <si>
     <t>#ff1820, #ff525e, #ff9ba1, #ffebed, #99dddf, #52bdc9, #127eaf</t>
+  </si>
+  <si>
+    <t>mm/mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evapotranspiración </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -252,11 +266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,273 +627,276 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13240DE2-A4E0-4EC4-B3C7-8FA6C8EDEF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD426FDA-F29F-41AA-8567-79424C691949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,42 +133,6 @@
     <t>blue, yellow, red</t>
   </si>
   <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 1 mes entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 3 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 24 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 9 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 12 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 1 mes entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 3 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 6 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 9 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 12 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
-    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 6 meses entre los años 2011 y 2019.</t>
-  </si>
-  <si>
     <t>metadata</t>
   </si>
   <si>
@@ -209,6 +173,42 @@
   </si>
   <si>
     <t xml:space="preserve">Evapotranspiración </t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 1 mes.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 3 meses.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 6 meses.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 9 meses.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 12 meses.</t>
+  </si>
+  <si>
+    <t>Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 24 meses.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 1 mes.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 3 meses.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 6 meses.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 9 meses.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 12 meses.</t>
+  </si>
+  <si>
+    <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses.</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,15 +690,15 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -707,15 +707,15 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,10 +791,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,10 +805,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,10 +819,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,10 +889,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD426FDA-F29F-41AA-8567-79424C691949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE3D1FA-AB4B-4B2E-9890-6AF2A37F77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -721,7 +721,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -211,37 +211,37 @@
     <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses.</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI1_era</t>
+    <t xml:space="preserve">SPEI-1_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 1 era5</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI3_era</t>
+    <t xml:space="preserve">SPEI-3_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 3 era5</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI6_era</t>
+    <t xml:space="preserve">SPEI-6_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 6 era5</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI12_era</t>
+    <t xml:space="preserve">SPEI-12_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 9 era5</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI24_era</t>
+    <t xml:space="preserve">SPEI-24_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 12 era5</t>
   </si>
   <si>
-    <t xml:space="preserve">SPEI36_era</t>
+    <t xml:space="preserve">SPEI-36_era</t>
   </si>
   <si>
     <t xml:space="preserve">SPEI 24 era5</t>
@@ -440,12 +440,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="108.71"/>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\odes-unidades-shiny-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE3D1FA-AB4B-4B2E-9890-6AF2A37F77E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C54900-3C5B-46AD-9F18-FA4F5A19C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="1245" windowWidth="16410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>pet</t>
   </si>
@@ -209,6 +209,45 @@
   </si>
   <si>
     <t>Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses.</t>
+  </si>
+  <si>
+    <t>SPEI-1_era</t>
+  </si>
+  <si>
+    <t>SPEI-3_era</t>
+  </si>
+  <si>
+    <t>SPEI-12_era</t>
+  </si>
+  <si>
+    <t>SPEI-24_era</t>
+  </si>
+  <si>
+    <t>SPEI-36_era</t>
+  </si>
+  <si>
+    <t>SPEI-6_era</t>
+  </si>
+  <si>
+    <t>SPEI 1 ERA</t>
+  </si>
+  <si>
+    <t>SPEI 3 ERA</t>
+  </si>
+  <si>
+    <t>SPEI 6 ERA</t>
+  </si>
+  <si>
+    <t>SPEI 12 ERA</t>
+  </si>
+  <si>
+    <t>SPEI 24 ERA</t>
+  </si>
+  <si>
+    <t>SPEI 36 ERA</t>
+  </si>
+  <si>
+    <t>SPEI ERA</t>
   </si>
 </sst>
 </file>
@@ -613,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +934,90 @@
         <v>62</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Anomalía del NDVI acumulado a 12 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-1</t>
+    <t xml:space="preserve">zcsm_1</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 1 mes</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Anomalía de humedad de suelo (1m) acumulada a 1 mes.</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-3</t>
+    <t xml:space="preserve">zcsm_3</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 3 meses</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Anomalía de humedad de suelo (1m) acumulada a 3 meses.</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-6</t>
+    <t xml:space="preserve">zcsm_6</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 6 meses</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Anomalía de humedad de suelo (1m) acumulada a 6 meses.</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-12</t>
+    <t xml:space="preserve">zcsm_12</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 12 meses</t>
@@ -340,7 +340,7 @@
     <t xml:space="preserve">Anomalía de humedad de suelo (1m) acumulada a 12 meses.</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-24</t>
+    <t xml:space="preserve">zcsm_24</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 24 meses</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">Anomalía de humedad de suelo (1m) acumulada a 24 meses.</t>
   </si>
   <si>
-    <t xml:space="preserve">zcsm-36</t>
+    <t xml:space="preserve">zcsm_36</t>
   </si>
   <si>
     <t xml:space="preserve">zcSM 36 meses</t>
@@ -370,6 +370,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -564,10 +565,10 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="A25:E27"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.41"/>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">mm/mes</t>
   </si>
   <si>
-    <t xml:space="preserve">red, yellow, blue</t>
+    <t xml:space="preserve">#053061, #61A3CB, #F8F8F8, #DB7969, #67001F</t>
   </si>
   <si>
     <t xml:space="preserve">Evapotranspiración promedio mensual. Este gráfico permite comparar la evapotranspiración en distintos años.</t>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">Precipitación</t>
   </si>
   <si>
+    <t xml:space="preserve">#543005, #C8944F, #F8F8F7, #55A7A0, #003C30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Precipitación acumulada mensual. Este gráfico permite comparar la cantidad precipitación entre distintos años.</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue, yellow, red</t>
   </si>
   <si>
     <t xml:space="preserve">Temperatura promedio mensual. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
@@ -565,10 +565,10 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.41"/>
@@ -630,24 +630,24 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>17</v>
@@ -661,10 +661,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>20</v>
@@ -678,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>23</v>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t xml:space="preserve">Temperatura máxima promedio mensual. Este gráfico permite comparar la variación de temperaturas en distintos años.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humedad de suelo (1m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenido de agua equivalente de nieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice estandarizado de agua equivalente de nieve</t>
   </si>
   <si>
     <t xml:space="preserve">spei_1</t>
@@ -365,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -408,6 +432,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -463,7 +492,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,11 +505,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,10 +595,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,363 +727,400 @@
       <c r="B7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>27</v>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>30</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>111</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">swei</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice estandarizado de agua equivalente de nieve</t>
+    <t xml:space="preserve">SWEI</t>
   </si>
   <si>
     <t xml:space="preserve">spei_1</t>
@@ -389,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -432,11 +432,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -492,7 +487,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,15 +500,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,10 +589,10 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.41"/>
@@ -1009,8 +1000,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -1052,7 +1043,7 @@
       <c r="B31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="0" t="s">
         <v>101</v>
       </c>

--- a/data/parametros_variables.xlsx
+++ b/data/parametros_variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="121">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">SWEI</t>
   </si>
   <si>
+    <t xml:space="preserve">Índice estandarizado  de contenido de agua equivalente de nieve.</t>
+  </si>
+  <si>
     <t xml:space="preserve">spei_1</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t xml:space="preserve">#ff1820, #ff525e, #ff9ba1, #ffebed, #99dddf, #52bdc9, #127eaf</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 1 mes.</t>
+    <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en 1 mes.</t>
   </si>
   <si>
     <t xml:space="preserve">spei_3</t>
@@ -136,7 +139,23 @@
     <t xml:space="preserve">SPEI 3 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 3 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spei_6</t>
@@ -145,7 +164,23 @@
     <t xml:space="preserve">SPEI 6 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 6 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spei_12</t>
@@ -154,7 +189,23 @@
     <t xml:space="preserve">SPEI 12 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 12 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spei_24</t>
@@ -163,7 +214,23 @@
     <t xml:space="preserve">SPEI 24 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 24 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spei_36</t>
@@ -172,7 +239,23 @@
     <t xml:space="preserve">SPEI 36 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía SPEI. Este índice indica la anomalía de la precipitación menos la evapotranspiración en 36 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación menos la evapotranspiración acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 36 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_1</t>
@@ -184,7 +267,23 @@
     <t xml:space="preserve">#730000, #e60000, #ffaa00, #fcd37f, #ffff00</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 1 mes.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1 mes.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_3</t>
@@ -193,7 +292,23 @@
     <t xml:space="preserve">SPI 3 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 3 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_6</t>
@@ -202,7 +317,23 @@
     <t xml:space="preserve">SPI 6 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 6 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_12</t>
@@ -211,7 +342,23 @@
     <t xml:space="preserve">SPI 12 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 12 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> en 12 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_24</t>
@@ -220,7 +367,23 @@
     <t xml:space="preserve">SPI 24 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 24 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> en 24 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">spi_36</t>
@@ -229,7 +392,23 @@
     <t xml:space="preserve">SPI 36 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Indice de sequía SPI. Este índice indica la anomalía de la precipitación acumulada en 36 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la precipitación acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> en 36 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">eddi_1</t>
@@ -241,7 +420,7 @@
     <t xml:space="preserve">#127eaf, #52bdc9, #99dddf, #ffebed, #ff9ba1, #ff525e, #ff1820</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 1 mes.</t>
+    <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en 1 mes.</t>
   </si>
   <si>
     <t xml:space="preserve">eddi_3</t>
@@ -250,7 +429,23 @@
     <t xml:space="preserve">EDDI 3 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 3 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">eddi_6</t>
@@ -259,7 +454,23 @@
     <t xml:space="preserve">EDDI 6 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 6 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">eddi_12</t>
@@ -268,7 +479,23 @@
     <t xml:space="preserve">EDDI 12 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 12 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 12 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">eddi_24</t>
@@ -277,7 +504,23 @@
     <t xml:space="preserve">EDDI 24 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 24 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">eddi_36</t>
@@ -286,7 +529,23 @@
     <t xml:space="preserve">EDDI 36 meses</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice de sequía de Demana evaporativa acumulado en 36 meses.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Anomalía de la demanda evaporativa de la atmosfera acumulada en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 36 meses.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">zcndvi_1</t>
@@ -389,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -432,6 +691,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -487,7 +751,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,6 +769,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,11 +856,11 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.41"/>
@@ -738,6 +1006,9 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -747,371 +1018,374 @@
         <v>31</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
